--- a/2025-02-03/Ice Hockey_2025-02-03.xlsx
+++ b/2025-02-03/Ice Hockey_2025-02-03.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/267117412701?_skw=PSA+10&amp;hash=item3e3170415d:g:3DEAAOSwFS5nfDW1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn8%2FCE4Kn8pVe9yuwpeKUlnhlueK6lj2LsonA3L1ElO0Rca9W4A24oHcks%2Fks6dapd9KKTeTZBtEKpw0C%2Flh6wTufQLYK3tBFgWlAcMHima06cWjjXa0bUAGdvLNtaheIraq5YP5dMuugAgQ8S3COUOFjb5GprTy%2FB8%2Bur1dQCwz4TnE1mJX4wF8ihtI9GEBVVEJNOisHrsugjJ105vhnJZgfdzMRXBw95Lh96KdRF9cw%3D%3D%7Ctkp%3ABk9SR6id6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/267117412701?_skw=PSA+10&amp;hash=item3e3170415d:g:3DEAAOSwFS5nfDW1&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn8%2FCE4Kn8pVe9yuwpeKUlnhlueK6lj2LsonA3L1ElO0b7aWjCK%2BNglov1BI%2Bi0Q4xtWj7Mevw8FVp55TRvhVIWAk0WqiBKs30uLnHQ3uQGFXPn9rI%2BPvEXCzEtJ8v29eoPGqNhmLgv5X6NeGuUIcMXnS0evwDM%2FhjMJRFedBkDIW9wuDEy4NaG78ozUMHy5A%2FGm%2BLal1pZv1N9leI6eFRgGNUTKis5F6ODwbugTdu1BA%3D%3D%7Ctkp%3ABk9SR_qG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnHdT4MtsxfuofLix9hi0nvLT23ZWkSozQtRBbtIb7kl1RkfphLn338UTAbm1%2BOr6KSNspA54LeVKIpaugpJ1QoTK30kNTrWVzDgZBZPK7G8FhBqSvp3TVWYn5Gq4YFpFK2MkfST2fllHWDh46Txl2X7byETylSAlOXpYTwqN1QrvolUFX6CLAlDcAi8bdmCQxEVosak4YmjfJ9I71TjRey7Xt3gGNjLo%2FlLZ8Ra9%2BOkm0WXEuZSJJ8ZZWzeYtqMhcbhEz0XeHB6DjRHwueok5x%7Ctkp%3ABk9SR6id6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/176821526941?_skw=PSA+10&amp;epid=9067921454&amp;hash=item292b62619d:g:PcAAAOSwTvxnoRyz&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm7lpblo9X%2FNollTibfjxQvYRZPeZnmF7aovdfl1z4f--OO%2B51lo1VNo%2Fr1gR4AMj6zmayU8JqrNFE4XSfEKitRU7aXyxg6AaI5mIfu8OGdNAO%2BVc9L8FUNvlTxo9nm801fsgEgnMG8vwIsFaSzXfqlz%2BzRoK8vB1jFSc70kdrhGK37djNq5zE0ALfwrFUPljjQl7O8Nsu7NyvGzn1PdAhv4LSoO0cNKQLwqJRwcdZ4zA%3D%3D%7Ctkp%3ABk9SR_qG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805453047?_skw=PSA+10&amp;epid=18056566731&amp;hash=item292a6d1cf7:g:7VYAAOSw3Plnk~4I&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnl0teENwco6pkyAC4WRZiwbCK5kmLy%2F1Iz00%2B%2BKslY7Mx5x9RYKRGrrPdTIqs18m9De7xDmnCQph6nHSx8NeDOxl0rUlSWTW5thV3h%2BL4ABtDgVNYv8ipiP3RVghfel%2FBCqSKNeiVh1BAxil9%2FQUqVteM%2FY25s8p7xzuCtSjsusApV1Rw2Dke7qNEuCaYJQQovVwHwCboZKLydi1Aa4t5T%2FfohCD4vfiMSc4Uvn7SANwkyO2kgmyv6QFIjsZEQ%2F1%2FPRy6XpE2SJ5OGz78sldu7%7Ctkp%3ABk9SR6id6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/176805453047?_skw=PSA+10&amp;epid=18056566731&amp;hash=item292a6d1cf7:g:7VYAAOSw3Plnk~4I&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnl0teENwco6pkyAC4WRZiwbCK5kmLy%2F1Iz00%2B%2BKslY7Mx5x9RYKRGrrPdTIqs18m9De7xDmnCQph6nHSx8NeDOxl0rUlSWTW5thV3h%2BL4ABtDgVNYv8ipiP3RVghfel%2FCWvgUqI4HLbUfxM0FbV4OyX%2BqZ8BbzF%2B3GDcG35yNBwG2s9cUOpJ7Qtyhivo4SdYBfvpzLdcZYQ6ad%2BgVGCrWSo3s1Hj9LcRt9Vve7xdqH4JcZb2vwpX1b8--IwaAo1N1C5AKnk4xWOXMRE%2B6zhXry%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387887638216?_skw=PSA+10&amp;epid=28056550502&amp;hash=item5a4fe7a6c8:g:ADYAAOSwiwZnklWR&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlbMPYHmJiPr7D1JMlJRIC7rqnYim2ijCtjrTwYg3vfKW4oseAtckgfEK2l9zomPIZRt902amOkMTaU8%2FUQuBvIo%2BdGvPKkXIZlG3ppUbFeAC27hmlH0F7wEFzFXh6wdJKYh%2F1%2FhClwKdKC%2FaFobh%2F9ufH2R9Wk9psF5wtqJblhm0xOy5NQqdKsm%2FLWIZ1shqb80Z%2Fw0yvPu4vbbWeItf0BJCN1Y9MFF3q2a2NJfFDeEar6lPytvwJS7v4DIX45%2BIvwty8XRxvKvb5nWbMnsPZz%7Ctkp%3ABk9SR6id6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/387887638216?_skw=PSA+10&amp;epid=28056550502&amp;hash=item5a4fe7a6c8:g:ADYAAOSwiwZnklWR&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm%2BpKqp1%2BGat0eCeU%2FOcLxRo5W7za2YzPaLVHBcYU6yWFpMlWPZHgxP1PLBqn%2Fqcu7jk5KTSKwbm36bZWkKj7Xi88OcAmPPhfvTqqIWITH3W2r2Ow0oY4U7IXOCW0ZAB%2BaOBoJzur%2F4vLWe8TW%2FEGxcDqXm%2BzI%2Boi51qXezCtnk8n2QIBoRVRxl%2B5iECcplJB30p3gUJNy%2FwloEPyfg3G9vPzeN2INbfLd9%2B2%2Bxi3RGbg%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/405517914071?_skw=PSA+10&amp;hash=item5e6ac04fd7:g:zYYAAOSwJ-xnoDlK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl0eaXMaoaNLEjYbY7CrPIGn1orD9YnoG1nr8Hze6bWResUUTEjQtdg2%2FeFBsexpwtHoNxaDEEHifE8spkwz4ngxCkxo61illUzOpEoJgpL7KWTGU9sqO0yjBwR9FNJomUgnrMFJQBW7SObgOLOd4AGSv1kxaSG%2FLVHZocCRoRHWsJjcULA7E6o2R7nsM9XFxie2FbFyZEN4%2FVkKRGihv01RKC%2BoBgicFYarmormzNGye6JcS95kz0VDDlme19dTT0EhgY6JZn%2FnL6im44YDS8K%7Ctkp%3ABk9SR6id6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/405517914071?_skw=PSA+10&amp;hash=item5e6ac04fd7:g:zYYAAOSwJ-xnoDlK&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKl0eaXMaoaNLEjYbY7CrPIGn1orD9YnoG1nr8Hze6bWResUUTEjQtdg2%2FeFBsexpwtHoNxaDEEHifE8spkwz4ngxCkxo61illUzOpEoJgpL7KWTGU9sqO0yjBwR9FNJomX%2FCO0gsSkbJmTZbAE8v3jySNSW3dbDVsSVsS8YdwDZt%2FyOSqfNDdC8RYik1v0q8Wq2gUmvjH1Ah8ZZLJyPx6wJM24PEB2E25k1H6FxU1RfwcioZQbpfADCf9w%2FzWuLLIdUXNTbqv2fq47ZsbNK3vJO%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/176805151540?_skw=PSA+10&amp;hash=item292a688334:g:VkMAAOSw~CVnk8Mv&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkg3YSZgUFNoz3%2FOW2y6UHDWkGHoz%2FF3U640rQDjUdaRV%2BWxFtqSpkR2c4n%2F7T2wpdI6jvQCAQCx8iM943qrmPrCtpNlvfxxEY3Qhu6OEBoeVk%2FdO0LecB0F0vuq5l94l9NESHEi4XI9LKKD8XDJSiZ0Y4Fzh3vBUvzBTHABcSpPEFVH1IBfJjqkDW%2BMMLPNMIzqc3i%2FQ17Izg8k8HlItbFdkSStPujqPZ%2FiIZfoTjaLsA28Y6SfvQD0gipEbtpYmMoB0WLLBCo%2FP8mKr5XpawG%7Ctkp%3ABk9SR6id6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/176805151540?_skw=PSA+10&amp;hash=item292a688334:g:VkMAAOSw~CVnk8Mv&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn4zu2ePis8PDry8xCrwMsLIFVrcP7k420GEUI%2BjvQJpn6ha2HAHkLORHLdHlVd6XeXcWtpnlOXQbDHSE%2Byv2NV3nrY8VDcDGNEK1yfloJ3S0YWOsGH4XYIigC0l0bmXNV1yoCl4O5lnIUSVkj%2Fi4DbqtBQynERKlAEyckmBxryiTYB5PGEQwjVe94fBRk7MnyflwlHFgkxK22vmFgWSoWTpMlihwvJVv%2BBs%2Fm7gK0K8w%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/387805298079?_skw=PSA+10&amp;epid=7057419904&amp;hash=item5a4aff3d9f:g:cnIAAOSwehlnfszo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnaRaOzo%2FgSQhWBrSCceSvhX6xxF78tourcD3rHvX3WUkOCGCPtJbs%2B7I1TwnRImIwJW63dwieI%2Fgi1RhEUPLjzbsNUjAbbb47xB5tuJ8Y%2BnI0qsOv7WdA%2BxiuSoWSLhhVsRgbsv5aDWdNCx%2Bose%2BLh6DSOkwy%2FARzOqGBgyHoqjECNQpHgUpcTUePhGcg2KfydtoGQjtubnA8KtU%2BR7ihsDr7BezlTEDEQQzOg7c0C0r14ZdNDKuiaB%2B7pPEBuDV9hWZqnG2v2kNwFHr7nYbfv%7Ctkp%3ABk9SR6id6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/387805298079?_skw=PSA+10&amp;epid=7057419904&amp;hash=item5a4aff3d9f:g:cnIAAOSwehlnfszo&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnaRaOzo%2FgSQhWBrSCceSvhX6xxF78tourcD3rHvX3WUkOCGCPtJbs%2B7I1TwnRImIwJW63dwieI%2Fgi1RhEUPLjzbsNUjAbbb47xB5tuJ8Y%2BnI0qsOv7WdA%2BxiuSoWSLhhXyG2Y%2FAJMJQIx1X8zFCZLRQDKmiEwyhX0%2FWaxaC2OQM9MEI4SMjfpWHUFNXYx9nXhbD7yP5iR%2BPDZ0UH3FuTbbXqcLLn06IfN6PCf4h%2BUDLP%2BQY%2B0pp%2BaUYH%2F7Oa6gXr7FYds1r5NLePY3CMU8QMCA%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256795723887?_skw=PSA+10&amp;epid=24056475317&amp;hash=item3bca37c86f:g:IowAAOSweOhnloua&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnVV9oFebOaDj0esOSXAutlmdGTZzr3PkkVwVJFN4imrTs2bwclaxHPhEJjZWhQjbAOQlk%2FhCe8Zkx8uP%2FJNVv%2FgXdrFls5NiiO7yEBscG2BdM8zd0D3vasBlRbDR01Hd0nfZpdWagbyUhZttWjO2IbsYo4UAUG6bVMECeXvpt2SbrK9K%2By%2BebzQAo3ea9Iw5hEB1sb%2Bfk5XTJxXXCffPbCLg%2BnBZN2Uz%2BSj%2Bjr4jTH9g%3D%3D%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/256795723887?_skw=PSA+10&amp;epid=24056475317&amp;hash=item3bca37c86f:g:IowAAOSweOhnloua&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnVV9oFebOaDj0esOSXAutlmdGTZzr3PkkVwVJFN4imrcjfqVq6S9dCh3uQ97FIALSVPq5znWObkF2noIi03OYr1uELdYjXV8j9o1f69PMCe4RjXGkESQg1r670Ci5D7ukzDVGkvyf%2FUcewiutXEILkfOurAixrPrqky2yTDuspFENbgc8%2BXnMdy3iKkfUSQZUbpwuScOQF1vH8AvkV4KlpP0ZnKsGhhi0eq00rCPwpZw%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256795723886?_skw=PSA+10&amp;epid=3056541036&amp;hash=item3bca37c86e:g:8mEAAOSwzrNnlovX&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmD51dkTJWc0zzJAl2tP6NjKbHck92Bb2bk7w50Yf6LUWwLcqW6cv7EOr%2FZ1mJobzt3mbjAUH3Cc8KUyNw5ptefx%2BVD18CJQxZFPOTOnUZqVz4oJPBGQ3BBKOJT2Mm1EsdJpaj1istiguAIxaIa%2F2uqpZQW2P6vNpvVpXx86aIuMMb0WugMuA5duacf3iI7oKOF3ZYaF4rjHC94DbTpqKVokI5EqaEZ2RTs%2BVusWknLlY1JB5BWe1yuarkAUkC28r1Wdfc8cJxanYBvX7oZ%2FHHx%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/256795723886?_skw=PSA+10&amp;epid=3056541036&amp;hash=item3bca37c86e:g:8mEAAOSwzrNnlovX&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlPPKQR%2BdyXTXF5UUUxt7UKH4OZCzyAWJlTmh6KUi3HZOOGyfxiXMAysUA3uSDfH2Ec%2FRmnTjiqLP3sgjc8TtWe%2FM7vK7A1cUpYM4nmQkQfKuKv9Gym1pCsGsrkc3Ut6MHn%2BZo5ffneNrw2shLsBxDasR5Vwc3od%2BzDUptwElhjgGi%2FZKGdTMCb86v8JlTurPPuVg%2Bg%2BPyYlbhRHLUzNmbv4np79axLKxmIMRbYlx8Pzg%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/375918132383?_skw=PSA+10&amp;hash=item5786777c9f:g:~lYAAOSwlFpngiZi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWOrBi80uyMLokWreNRmbbRRjTdHZKDVXIiDj%2BhfcQEEU%2F2bSj%2FPYISZPaDl2ZvkrrI97baUljtDK%2B5sXwpBxRvVe0XYHb459gOgNGodLMVzATFLakHn5dNjSqPJF6CpUCUF2zWCgGw8qVzP0TupLnHuk8mLhUCTHIOnJHcp9D7xM6uQrMIVjd0pRaQcQsoCdSaMf6hNcwiwTK5FnmaJ%2BjBN%2FzRilGfTBvtoLUY3yNLw%3D%3D%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/375918132383?_skw=PSA+10&amp;hash=item5786777c9f:g:~lYAAOSwlFpngiZi&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlWOrBi80uyMLokWreNRmbbRRjTdHZKDVXIiDj%2BhfcQED%2BGCfmVgnV56qc2dcAen9otpavxfq8E2Ahsz5CWig3hdMmVO%2Fdyg%2BzAC7Y4VD%2FlAL6%2FGdtIT%2BTgRZ5RZyIrjGsiR4pFb3gyM7%2FJgM3jkt2%2Fz%2BMpyrxmAplVoF7LhiJ0Ady1bTZW9XqOwgQFwIa--%2Fts%2FhmIzHUHWroZYkjVVbizwkggm3PED4PykXzW%2Bngoxg%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296962900559?_skw=PSA+10&amp;epid=23056497460&amp;hash=item45245e424f:g:6dsAAOSwF31jzwCZ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlkhgm6rhT%2FM3m9KR2cK5SDqqYe74Ors5r%2BLX04Eu4w0ZrUI0HC%2B%2Fc3lC8MUwzb2s21RxX8Q5wrmFFaVKGjUir6cTn8lh6sBLRROKxP6Hwj6vXV0KxFLlXWP3P0Z1ZDb81cc%2BBYiV4DwePwx0Hf8m3ccmXRCfh2RMBdZWj5KaJ4H1TSnbXGLL0VaakZaSo83Am%2B7AKTeb%2F7o%2BBF5%2BRGU9%2B4Sx1KKAe8if1NU5zm6tDD1Q%3D%3D%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/296962900559?_skw=PSA+10&amp;epid=23056497460&amp;hash=item45245e424f:g:6dsAAOSwF31jzwCZ&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmR7AsD0tqvNpKyWYxZG%2FcyjOe35NkcxhdNdqu4pyq0floG5M8QBiVQ8Sfjevwyn%2B1BpFD5jpw3RGnMLgoENqKbZDwYShDjSxVA7dyXEquVbfmEwnaYsbj6AoFOzE7fbwShiif0bzy%2Fi1taf6LbTo1VG7B10XobP4eCXyx4VR1PUyDyF6tivbchKhaD4fFaoQhTDpkBpj141lRbb4aGucqYIVXbEWVg3EhXK0TavRlE5y0%2F8vjugZDomXJA4quP3zaoxPWNaT4vyWCIs%2BXvlry4%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/296962898585?_skw=PSA+10&amp;epid=13056556832&amp;hash=item45245e3a99:g:e0UAAOSwr8RnNOad&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnixT%2FfGrpWbewFLMtRKnTxQngktYpvRFSvAZM4es7kz8LHUNJF1Z5Xi25wQJPu6a%2BWVmstf0p0J4K%2FHSokRlHSKFhRyut--K3XFTRwtV247%2FWeUUsYvb9IeLnAH0jTEJfkbvkSbf7sjrLHkF0Z5xY0JhKE942Z8J1nNmIG5OgjIvUk9nLUv5i3XjLKko7s17vR%2FZHrKfsd%2FpLDqPkR%2Bi3tMpCaNo4iNZ2u4SqKyt2CiZHagXCKhO3iDvCjbOtfsUcKwz07z3e03xzrvK7%2FAIV9%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/296962898585?_skw=PSA+10&amp;epid=13056556832&amp;hash=item45245e3a99:g:e0UAAOSwr8RnNOad&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKn3faeJkvW90z3Uhslyoi4ybdi2MUg6coGEi49dDxMl8n%2FFJvaVvq4skW67lUxsaMrckvOP4F7bzNnqEg2S5tVMo4io%2BYG8V2ZLzw7eseX4nF9J3Ha236Qqr6MdQN%2FO93xnF7EK8ojT5NJBhvuzOC0YlpHflr7b%2FIlKNk9o6KFcGWLPLbFKYoszNlEOLRfRuKansZABve%2FVHh5PnnZGQ2tC6PB7QU81XHcLGIQ%2F4G12SA%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196773585009?_skw=PSA+10&amp;epid=28057231422&amp;hash=item2dd09ea071:g:YZQAAOSwpBVnJl4A&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKm4H5jYlgNuReWrKIpAZN1F3lxxIeLW2CT9CNvofMZanbFO%2BxQm2OWH%2Bk5Xh6%2BWieNHZF9Lpkk3eIL2cuc8RSiubGyL1u640B%2BElzMLEPIusX9oQ01PTfWi4LvbPP3pMQ7Okap4yU0bWTdTWn6TP6KNZPnxg6RGQYk2oMniWz%2F0FSJhS9UCoNhn%2FOGVnOWg%2BoDtj5a%2FX%2Fo1ABbaJxp%2BUboeR4CtrSX0oFOCf7SEECnxLQ%3D%3D%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/196773585009?_skw=PSA+10&amp;epid=28057231422&amp;hash=item2dd09ea071:g:YZQAAOSwpBVnJl4A&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnSbTr%2BtNziKxl04fcYoNRq9Frv%2BX42FL42MAmd7UqW3qykNTt2WHICrHlavqrXcpV2Rr4aBUNanV6dPQmJy1VV4D5pmTMMCVx9dxq61%2FZI52r8cMLUraUkSnOtKySK5sxQFgtBypMXYdLP6K2LQ5tsrGz2wYre173nPAU52LPtYelPCj6oYKJrutzuHT8Cy2DlRtcKmraBFQQJZpKfXGNVXcz7O2snpnSp1qlCJCIp5JnnmKdywIb%2Fnm1zKeg2Qaz9TcspRKAE4vAmAVY7lVuY%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156613190683?_skw=PSA+10&amp;epid=12065150825&amp;hash=item2476dfa41b:g:sDUAAOSwxW5ndK01&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlYdzLzNBCr8KCcaaa5lWKRKiKR1OXa00LrA9Sa%2BApRTEd%2BSFjReUccRpYKiFWGkKFns5K3tgDz2S59LWL2IRUmBg%2B85%2FSgp0bVgM5buWzg9eAHp1ruVNRl%2FLRJchBuWTAE27%2FYg%2FhO37q%2FvgTNqvwHgi%2BcrzfhldqN8wBpWcMAYRN1YNN3eW%2B%2BthK5vK8YaP5YOO2tJ52vZvQusHKiAXZEtK72POqzduvo2YGecGeHSKpZTLWFIZJnHhncnB92fYSbS9fVjj6catCR%2F5cXRyvG%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/156613190683?_skw=PSA+10&amp;epid=12065150825&amp;hash=item2476dfa41b:g:sDUAAOSwxW5ndK01&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKlYdzLzNBCr8KCcaaa5lWKRKiKR1OXa00LrA9Sa%2BApRTEd%2BSFjReUccRpYKiFWGkKFns5K3tgDz2S59LWL2IRUmBg%2B85%2FSgp0bVgM5buWzg9eAHp1ruVNRl%2FLRJchBuWTCbQFNeNDoI9g4qTnIOJ0FPzoXQDTH8dGIMmecAzSqM7yvXWpfZ1xrxzvCfspkhFj2xZuTIljPbtXvshAbysDZzgKiJua5iN0oYVuRwXO0FcELcmlXeU9VzKxTSrK0PhiLfvug5S52SR8Yb%2BxUWJ1TN%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/135501992325?_skw=PSA+10&amp;hash=item1f8c8c5185:g:eOoAAOSwxGlniYU0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmTenytKrRpKyIytTX6m20JxpMtjoPwZxA7kAtPgJ2aaDiDZjHFaXf3uwWlNwCo36UPHXh36hjh%2Fp2fPjfVUyR1EDnVEyKvHvk9mAYQMg%2FnnPdS5CUxJCBYczH7Mns%2F3n8u0iGYTuwfxU52H2sX2ovmE1y0iNpmqsvrkJoO5g1hNQW6oEu1txZy0AwBw%2BIFzLsxTf4Bz4CBx%2FHONmR71lcCZBEzDk2lsN%2Fr3OxT%2FB9QEQ%3D%3D%7Ctkp%3ABk9SR6qd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/135501992325?_skw=PSA+10&amp;hash=item1f8c8c5185:g:eOoAAOSwxGlniYU0&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmTenytKrRpKyIytTX6m20JxpMtjoPwZxA7kAtPgJ2aaNF4BXYJwY6ehMOHT%2FDBanMxZiXexdDjDG3Mn1P77l%2BQ5LGfYEzPdY5Dls%2FnKWHpwyVlMzWoeLqK9vmdw1YQPe%2BfntkX63qW6POgeQ%2BAzHyPJ%2BMK3byhuECiA%2FPzyudy3mQ6oAOZpnuBSBuAuYkkbYlFFDF2CKYz3RhqO3H8ty%2BaVO6AzLPHRxlEUsdomvBmoQ%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/235942085492?_skw=PSA+10&amp;hash=item36ef3e8374:g:9gcAAOSwaARnnsTc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkEAqbwWYUIUxiRvkrrW8ioR3wxOpOg6j5fpn5abUEy1Dciol%2BNsrfxT8X6%2FZcGXTuiSOkpXewjBU3dgcpl7Z4hhC%2BsMZuTdkssbzwf1AcGN8dFgu6sf2c38%2FiSmfEkAtd%2FqWuo6AN4VNMdnxb94YGXH3B0b3rKSoO9iSUNV0gGsmHkcyMmNL7uaP4LrRzWYvq57A5Yjpl0LyVJ3%2F2kgSHolzZPvH%2Bk%2BN6Zhu32bHdopQ%3D%3D%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/235942085492?_skw=PSA+10&amp;hash=item36ef3e8374:g:9gcAAOSwaARnnsTc&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkEAqbwWYUIUxiRvkrrW8ioR3wxOpOg6j5fpn5abUEy1NFnBtvqsUhDYu%2FGEoiE%2BhyANNsuMJfYqy0vG6YbkboOxNaCFhM1uyVpBggHJZ4lCoJA88QZ90Ez%2BKeC50TBcVvvJJOsS%2BOClJuqe8edSI4QODdA4ER8LpBqvarnIYPdbTix6CEDdcxVu2DiTIMyOSmhzgGIszsDhjvVNROHhAjns9BUuVD5hXVzUXztIS5%2Bjw%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKksgDN%2BrpKsv0HLEDgfSj0KWLOZeo1JvZTFsj4BBSEwcPC2%2B24iLIQJntIsdQuQOsPVn9ytq3lYuH6yoYAObMjHYthwd%2BXiPfI6vNqN2yqFwEilUUB6HnYKG9mpVSJSuM4TAb2rZ5OzBTh7VytQZXfmqkGoXdf2OCGucfNOgYs5v5uU9ppU%2ByfZbuCj5Ss%2BaZ6ZKfYjMIXmlSesAal9o5KV5QKMIijEpXg0vjj4zfAl3FNH8PYRcaCbUw9taBmicWk8QIp3j8PEDW5rAGN52qFA%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/326398442439?_skw=PSA+10&amp;epid=19073118416&amp;hash=item4bfedcfbc7:g:EvwAAOSwKZdnexIs&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnuyI2ZglHeBl%2BLaUEtFjHiNGPK0qTVrYdP4btjA23wox1Q%2BVZptRDhvN5NLIxr%2FechD91l8GGX2kQ68%2FBHtn%2Fs0RoFYWbxOUXuumbIoWGhg%2BcttXbFseH2ncb1aouUYETy9zGCNt%2F%2BzB9MZTLGZmA3WbjhRmc13HIV4xrsp%2B21fyWkvaG9fgnwJ6K8rJJlWxsAkir0eC4ik99%2BTTwb25hu9A6nba1vwBhFeEjDxtws4w%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/225924897265?_skw=PSA+10&amp;epid=27058914339&amp;hash=item349a2c59f1:g:m3QAAOSwas5lg0R5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmD0v%2Fjra%2BY8bzyfBv7JqfNpbt1rzICi8IBJxZKQ5tkCyHK%2FakyQ3pKzmmDYGV6gebx3LP3Zi6A5aNLYnPUrShdiOnS9GOEZzhX%2FaVhDtpUqcPl%2BfyCt670bRWKO6MbK6FbugAv0B0H%2BA%2BgxY4fizl7PXtPYTD7m0hTS1gKUfHbHYIevQ8IAKhJ%2BzNjuGxRYyHioXgu6AOaMtZqqrOfHbx2IQpOv2l7CutynUqxwbhwCA%3D%3D%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/225924897265?_skw=PSA+10&amp;epid=27058914339&amp;hash=item349a2c59f1:g:m3QAAOSwas5lg0R5&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmD0v%2Fjra%2BY8bzyfBv7JqfNpbt1rzICi8IBJxZKQ5tkC9Gc0S42%2FHcIL%2FkqXYtKrK4adYS53L7mH0VEp5KOkLBYapwTmzhzlH65KRZtU5f21zNB6Y6DqaXz95rOAu57rJC6Bt6F%2BtbZmCWa7Tgvr3U12Jn%2F6C69WVxy42dVGA8evvY14%2FrYesvSfi%2FGR1v3CR4QdHKrpXeO%2F1%2BdNRTPk6TmCZbW1YNI7cpVxSvJd96GRw%3D%3D%7Ctkp%3ABk9SR_yG2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/167189515378?_skw=PSA+10&amp;epid=12056472621&amp;hash=item26ed458c72:g:p1MAAOSwgiRmBF-e&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkEXYi1nq8z2ysqgm2kowQ%2F%2BJG9emxV10A1SpUjXb0h%2F6tKQ%2BysI%2FHp2GBJp5%2FpjU7VeNKrlxpOhonDdqphzwYCd5YQq2tIY7PNMA1ZO15e2v3W2sfy2LGw5gtx05VB2krbA%2Bkz7sQD2eBBYdbfE5rS6hPjb%2FhqO61RYdGhUAqUBYaIVcu3kIv0Kux5P47a7i4BIM9oC5%2Feu9R8WSW0ywSB%2BiL1VhyX1s1yw24k7dovHcLUeHkdsi5wN2ZoB1fLMWfaODesn93hnCAqhWo3om5d%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/167189515378?_skw=PSA+10&amp;epid=12056472621&amp;hash=item26ed458c72:g:p1MAAOSwgiRmBF-e&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmr8Nge6xT1YazJ16%2FgIJ0P69gG7ixrQvHJ4XX7SeG9cS%2FCvLbfmvtINCuny4m7Gm9N%2BGXrcHN2xz9MupsICfUpG87innyUSkPrZ%2BzIsyaVQjsQgx%2Br6ljy7L8kB0LytsiCoqTSlOKOh0%2FumDcKXw%2FMfI3dthlxxorjw1zC%2BI3bT0n6PWZGn36bIVUvDBBHKfVVQRwezHx4WS1Ohyi9CJdh2prADhtnZDQt6RrnJ79h9A%3D%3D%7Ctkp%3ABk9SR_6G2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/316002527567?_skw=PSA+10&amp;epid=26057234551&amp;hash=item499337e94f:g:3T0AAOSwre1k37dL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlYqtvhjaVDATMYRJXDunXJuVMlwRAnnwFFwAZNxWUePc7eH1OZXyYJfyvHk09mJf%2FuF5S2LQIHTYbmZcdBjQDN%2FZUSIhb34afUgFB%2Fi2ShjJBHhzDD7uweOaK1EbAjU2Gjf6bB3cuc2Sm7C7%2FXXgBn%2FW8QEbkGZs%2Fx5q8qeRSgtmCA%2B3pooHMrrP6yWuAsTpqB1CGilJ58ec3Z8fLuet9Q4YyR5staEnpzj14XKB5ZFg%3D%3D%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/316002527567?_skw=PSA+10&amp;epid=26057234551&amp;hash=item499337e94f:g:3T0AAOSwre1k37dL&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKlYqtvhjaVDATMYRJXDunXJuVMlwRAnnwFFwAZNxWUePXK%2BWExEhvEgnjx6P7kEHpt5Lv%2BfIz5X8VIa5M2FwyfbIkI0dvlyPQJkygSwrW2SN2Hvl%2BqDq3Yd895MwYVyhQdY%2FgjdzeY%2FOBfgCPtRMBUCRhkha5RuNX5I09IyxNZDZ8u%2Fk68lCMjI1EOv2xlMrrGInt6bMbzOCP6ljCJXWwXLS4965ThEQ0n%2FvIDLpqEiog%3D%3D%7Ctkp%3ABk9SR_6G2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/286286227826?_skw=PSA+10&amp;epid=7056491216&amp;hash=item42a7fd2972:g:tZsAAOSwjJJnlrnk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQ8zlKxJbxNkhcIqilSyf9HWV2ifRggxMdczlxaqUktDM50kPOp86y5LVkwFMMuKIks%2BEBQtQfZ0S25gbEOhynX%2BngbOi8iv6sQELOQ5n4Thj1S7MqxDMoKC6PlHxwG0PvDj%2FzIk4kbtMsz09na2IyZPnLa36L7vUBxPcavkbom%2FERRVBV2DsxFzAri%2FRXemdvgJ3yBH7hrZHXS04c2l6kcdjoSultSbFMGvKzGxFSNYcVHEyM6Ua6LhXoj5q3xwr9Pgt4B18bW%2FhW9puIDd6j%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/286286227826?_skw=PSA+10&amp;epid=7056491216&amp;hash=item42a7fd2972:g:tZsAAOSwjJJnlrnk&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKmQ8zlKxJbxNkhcIqilSyf9HWV2ifRggxMdczlxaqUktDM50kPOp86y5LVkwFMMuKIks%2BEBQtQfZ0S25gbEOhynX%2BngbOi8iv6sQELOQ5n4Thj1S7MqxDMoKC6PlHxwG0O8oeQVsjlYXzrm%2Fh9LCUdmtfvnribyqgCJMhwAWWP26BVKAYvMI9eK7Sy7l3XAYyJJ6fhNypVB6pgf%2FNPrv7Go4GZkURqMpiUDrxklQuHdNBBFaflZ2EeS54nRY5LejZYfW4%2FdbtP1KKLF9gaAcAjW%7Ctkp%3ABk9SR_6G2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/156278096869?_skw=PSA+10&amp;epid=9062490335&amp;hash=item2462e683e5:g:FEcAAOSw1pJlNElQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnzexsRLWw2kSMtIlLdWQyMgKh69r0QnUZgneas8mhxfK6p9sXnUqCC7LCvvByJG75EDLDUqZWnOgzr%2F5tKngo%2Bh1YVkEKWO2TtDdmqaGQXN6qp%2FZtDDM14UZgQ2cK2PFedl5Yf%2BFKFKUa2gGciltNldjbX%2FQBTUix6scAtklZOoeqS9Jbe9m%2BKCIS3oA2DZyaRNg9Gh%2B8h%2BvGxZXshjjkviB3oa3Hmx17RM0DmAgUILQ%3D%3D%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/156278096869?_skw=PSA+10&amp;epid=9062490335&amp;hash=item2462e683e5:g:FEcAAOSw1pJlNElQ&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKnzexsRLWw2kSMtIlLdWQyMgKh69r0QnUZgneas8mhxfJ4Q1coBNaxLeb%2FP6%2FxZX6SaBYkWk5EXrGHDp%2BoUgI7ap%2BvhPHWfNRqeeT8UXMeYCfGcNcdm%2FNg58RsP3iHHXvXUfWtUP%2BzYO1Ro7o8GjlDE7IuijsN7ZVIS7esHAJRPdF9LqI96EL2lKYizYPXuULczXdKGazJn9zHOHBvVN6Aq6AP76QzQG3mfssZySYhYnA%3D%3D%7Ctkp%3ABk9SR_6G2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/186898631323?_skw=PSA+10&amp;epid=19056562123&amp;hash=item2b8406ca9b:g:zgAAAOSw9ilniby2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnCYFFaKCr6ELEtrSrk7UFA165ovwcQJyyZe5ld7Xa0AdbuOpIg2V6%2Bj6KLVFhh6gnENky7ixUW7ylH2%2Bbvx4kDngWR1JS4ed9iNX4bB%2FZq5kuLcxzGWrtw1ftuc24Wvqp8Cv49iR%2BQw%2FgzE1ImS4VqVaKEYPPyu1V%2FApHjxfLYijkX4FNUu9Uo2%2BATwxjRdsmmDVW1dH3kXk9xaKYoeJ3mh6A29MILF9Q3V6t%2FsEVaWsrcEWV7QWBNJ5tyE6TKhtI32LekCsqy7CjhVnkY8rxn%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/186898631323?_skw=PSA+10&amp;epid=19056562123&amp;hash=item2b8406ca9b:g:zgAAAOSw9ilniby2&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKnCYFFaKCr6ELEtrSrk7UFA165ovwcQJyyZe5ld7Xa0AdbuOpIg2V6%2Bj6KLVFhh6gnENky7ixUW7ylH2%2Bbvx4kDngWR1JS4ed9iNX4bB%2FZq5kuLcxzGWrtw1ftuc24WvqpFkiKlqz1VN%2Bgx45nhyni%2BvNTmM666AU9h%2BXOlK9u5bze7hYi57%2B90bhXwQOp2xO%2B8yVAYTT2%2FK3i0ocuon9samtC%2F6IbPAvpl4YLVRHH5jXcq%2BubWu2sVvReydVIlqd%2BFqOMZhnGtOyJIH8ls%2FJ5X%7Ctkp%3ABk9SR_6G2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1305,22 +1305,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Upper Deck</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Class 1</t>
-        </is>
-      </c>
+          <t>Upper Deck Rookie Class</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Alexander Ovechkin</t>
+          <t>Alex Ovechkin</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1335,7 +1331,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/256776837557?_skw=PSA+10&amp;epid=19057417185&amp;hash=item3bc91799b5:g:Ki8AAOSwpAVnfrjd&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKmdRCZNHL2cyPSoiv7taVzViQVwCmWOZPX8qju5l8iQmz1SwtiGNEvPEDyXNKodaVWMIX9wGGZwQb%2FfJ9VwUcjOFxwRCHufYHVil%2F9GxkREokDwVxR8fYZKPo7ZXGh7MkQ%2BzljzdiX5btQyTLmPuxCh4TbphVMWf6c%2FMHqXvxW0v29e8dIJ84Qr8KFdWAgOo1KC0xWyBm%2BjdOHMSfZPzrMh3w3Ji3V%2BkELKF6wWDy0JwQ%3D%3D%7Ctkp%3ABk9SR6yd6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/256776837557?_skw=PSA+10&amp;epid=19057417185&amp;hash=item3bc91799b5:g:Ki8AAOSwpAVnfrjd&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKntLtFlmJ1Xajxq0XzXec3FEWuuIOwu8iJvVQaOOFyosO6t13jl5b0i5%2Bal8ymKpD0APJEiuzWHm4dRbVo6%2FLofW%2Bx8rkbObsoRbgL4vGafcx3TC0lp7s9xgFsytw3Rn5Z%2B8bF%2FKVu2XRidjhohvcchsd%2FgMIezoTIRf6nwiqfrMFRfU7GXpJt5jN9YO8JEJ%2BXHbSpp2f4e35AScXJX6ARxYvPC4MG83XAVzpAkVcAQkwSqhSVeHZ22AVoARoy2a2CsDWBonJVxK5TiNmaUZbrM%7Ctkp%3ABk9SR_6G2peaZQ</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1373,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.ebay.com/itm/196987843563?_skw=PSA+10&amp;hash=item2ddd63f3eb:g:CMgAAOSwxstnn67L&amp;itmprp=enc%3AAQAJAAAAwHoV3kP08IDx%2BKZ9MfhVJKkhmhCb%2FlGH8cOiiOdEUtHp02B1xF6M1%2BArjjFaRIRnI528L%2FxI9Ix9Q6TL7tY22fxec4VxTJHGiF1kkI9xmVvUzYsAcOoyG68HUk9UnEUPviyXG%2Bz9cIPfQwNqJKGhKPltuYTXY57mBXtae30iy9RDaShc01GXp4nWjymvRcmy85RPspzotYywQ%2FsUuhRAuCDpWOgADmxm1KCX4lv9uiVXd60r%2FwXwfCXYEzGkhj6DYw%3D%3D%7Ctkp%3ABk9SR66d6ZOaZQ</t>
+          <t>https://www.ebay.com/itm/196987843563?_skw=PSA+10&amp;hash=item2ddd63f3eb:g:CMgAAOSwxstnn67L&amp;itmprp=enc%3AAQAJAAAA4HoV3kP08IDx%2BKZ9MfhVJKkuXg0fVrlQ3XsHH1gxIq1Rj0JxE049VgBG1E8A4tnubLZnfMQbtIsS%2FHGRIPogr%2BsAwyHVu7TlMx5ur1OuSMwhq2UhpL1Vx3jErPhW7w7mw59TLD96mWGxZkzfhTQRLvf6%2B4blF4gwpdPmZWnGcIXXtJcOJWuHbLt9l%2FdrbLgbvmQbs%2FgQyo%2BiKyVzs5UoMPeWm54Zx542CukmbXREn7GuWHRTwW39gCrCZ%2BuQ25TsjGrBFYLhb7kri24TINDO8FM8yilOSQwzHfodwvYhnT9y%7Ctkp%3ABk9SR_6G2peaZQ</t>
         </is>
       </c>
     </row>
